--- a/CodeSample/SpbDotNet.Approvals.Tests/Part4_FSharpDataParsing/TestData/TestData.xlsx
+++ b/CodeSample/SpbDotNet.Approvals.Tests/Part4_FSharpDataParsing/TestData/TestData.xlsx
@@ -60,10 +60,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -323,6 +323,126 @@
         <v>4</v>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
 </worksheet>
